--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject19.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject19.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -164,7 +164,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>0</v>
+        <v>0.99359427332404615</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -194,7 +194,7 @@
         <v>0</v>
       </c>
       <c r="W1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X1" s="0">
         <v>0</v>
@@ -227,13 +227,13 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>1</v>
+        <v>0.74779409741695813</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
       </c>
       <c r="AJ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK1" s="0">
         <v>0</v>
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>0</v>
+        <v>0.6225530130690482</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -275,7 +275,7 @@
         <v>0</v>
       </c>
       <c r="AX1" s="0">
-        <v>0</v>
+        <v>0.84209717340984924</v>
       </c>
       <c r="AY1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0</v>
+        <v>0.5184272767446646</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.51416383772880159</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>0</v>
+        <v>0.93727274121827042</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="AN2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="0">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="AT2" s="0">
-        <v>0</v>
+        <v>0.94350714091442323</v>
       </c>
       <c r="AU2" s="0">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="BC2" s="0">
-        <v>1</v>
+        <v>0.75435203123047667</v>
       </c>
       <c r="BD2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0</v>
+        <v>0.75370286268355613</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>0</v>
+        <v>0.9347811585505531</v>
       </c>
       <c r="M3" s="0">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
         <v>0</v>
@@ -645,19 +645,19 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0</v>
+        <v>0.82668691919573378</v>
       </c>
       <c r="AK3" s="0">
         <v>0</v>
       </c>
       <c r="AL3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="0">
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0</v>
+        <v>0.67698858734050371</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AT3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="0">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="BC3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0</v>
+        <v>0.66689764715032052</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>0</v>
+        <v>0.98589826840531436</v>
       </c>
       <c r="U4" s="0">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0.77178468734555294</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>0</v>
+        <v>0.68679424920294008</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.54205555910674841</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1</v>
+        <v>0.71750111111920301</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="0">
-        <v>0</v>
+        <v>0.79347063789745576</v>
       </c>
       <c r="O5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
@@ -1030,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0</v>
+        <v>0.59026735867028113</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
       </c>
       <c r="AC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>0</v>
+        <v>0.55179418805080049</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="0">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.76202548918266</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="0">
-        <v>0</v>
+        <v>0.95489281494336087</v>
       </c>
       <c r="N6" s="0">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>1</v>
+        <v>0.75969171312089268</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>0</v>
+        <v>0.58321641859065565</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="0">
-        <v>0</v>
+        <v>0.85725557874438429</v>
       </c>
       <c r="AS6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>0</v>
+        <v>0.68843690718313211</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="0">
-        <v>0</v>
+        <v>0.74426107451248902</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="0">
-        <v>0</v>
+        <v>0.68325617390370419</v>
       </c>
       <c r="BM6" s="0">
         <v>0</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>0.9802366813870389</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0</v>
+        <v>0.55957690535774507</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="0">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="0">
         <v>0</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="0">
-        <v>0</v>
+        <v>0.98493602092014942</v>
       </c>
       <c r="AP7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.5645592840634488</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="0">
         <v>0</v>
       </c>
       <c r="R8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>0</v>
+        <v>0.54141738900876257</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0</v>
+        <v>0.67598548367055433</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="0">
-        <v>0</v>
+        <v>0.5117257800933932</v>
       </c>
     </row>
     <row r="9">
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="0">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>0</v>
+        <v>0.69973497605812285</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AV9" s="0">
-        <v>0</v>
+        <v>0.90895316553191985</v>
       </c>
       <c r="AW9" s="0">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.81609416882116292</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0</v>
+        <v>0.96179617025379605</v>
       </c>
       <c r="R10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>0</v>
+        <v>0.9129259046624798</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="0">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>1</v>
+        <v>0.5992561363112936</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>
@@ -2224,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.61475225585673532</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
       </c>
       <c r="O11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>0</v>
+        <v>0.63742955990620331</v>
       </c>
       <c r="Z11" s="0">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="0">
-        <v>0</v>
+        <v>0.71488637014756851</v>
       </c>
       <c r="AZ11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0</v>
+        <v>0.50241532657119825</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.71340609703708902</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.65505414166005949</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2496,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="AI12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="0">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="AM12" s="0">
-        <v>0</v>
+        <v>0.91906171074099585</v>
       </c>
       <c r="AN12" s="0">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0</v>
+        <v>0.52572987134220406</v>
       </c>
       <c r="BA12" s="0">
-        <v>0</v>
+        <v>0.7671779866930708</v>
       </c>
       <c r="BB12" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="BN12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO12" s="0">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>0.92711403534174253</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0</v>
+        <v>0.94728714085158239</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.62633454855744142</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0</v>
+        <v>0.79668644565151592</v>
       </c>
       <c r="Z13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="0">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>0</v>
+        <v>0.57319935736298411</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>0</v>
+        <v>0.622820021254195</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>0</v>
+        <v>0.54967133540802338</v>
       </c>
       <c r="BP13" s="0">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0</v>
+        <v>0.78309710103621433</v>
       </c>
       <c r="F14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.64526182686813816</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0</v>
+        <v>0.77420416995688468</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="0">
         <v>0</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="AL14" s="0">
-        <v>0</v>
+        <v>0.96771530895913171</v>
       </c>
       <c r="AM14" s="0">
         <v>0</v>
@@ -3024,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="0">
         <v>0</v>
       </c>
       <c r="G15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0</v>
+        <v>0.51926827732870662</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="0">
-        <v>0</v>
+        <v>0.85413146806332085</v>
       </c>
       <c r="AE15" s="0">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>1</v>
+        <v>0.85411803593538371</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>1</v>
+        <v>0.82974492470191641</v>
       </c>
       <c r="AG16" s="0">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BH16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0</v>
+        <v>0.78777848858866328</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0</v>
+        <v>0.72729438415666015</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>0.94600071456501855</v>
       </c>
       <c r="AN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="0">
         <v>0</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="AZ17" s="0">
-        <v>0</v>
+        <v>0.99188088890230863</v>
       </c>
       <c r="BA17" s="0">
         <v>0</v>
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="BD17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="0">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="BM17" s="0">
-        <v>0</v>
+        <v>0.77963924324273504</v>
       </c>
       <c r="BN17" s="0">
         <v>0</v>
@@ -3645,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="F18" s="0">
-        <v>1</v>
+        <v>0.91154672668052028</v>
       </c>
       <c r="G18" s="0">
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.51383483441596467</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0</v>
+        <v>0.79956702707281879</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="BA18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="0">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="BK18" s="0">
-        <v>0</v>
+        <v>0.91783004457171691</v>
       </c>
       <c r="BL18" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>0</v>
+        <v>0.99203712723317228</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.87596711531190818</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -3956,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="AO19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="0">
         <v>0</v>
       </c>
       <c r="AQ19" s="0">
-        <v>1</v>
+        <v>0.91801597979138516</v>
       </c>
       <c r="AR19" s="0">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="AY19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="0">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>0</v>
+        <v>0.76334237080571532</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>0</v>
+        <v>0.94249969362173203</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="0">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.52681011379674436</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4123,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="AB20" s="0">
-        <v>0</v>
+        <v>0.85827055784407236</v>
       </c>
       <c r="AC20" s="0">
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>0</v>
+        <v>0.82451520479239515</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="0">
-        <v>0</v>
+        <v>0.9123941204900845</v>
       </c>
       <c r="G21" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.5465394155337131</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="0">
-        <v>0</v>
+        <v>0.97444218680601891</v>
       </c>
       <c r="AB21" s="0">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0</v>
+        <v>0.75259700790765605</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0</v>
+        <v>0.5957246611605691</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
@@ -4514,13 +4514,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.65702515612594936</v>
       </c>
       <c r="X22" s="0">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="0">
-        <v>1</v>
+        <v>0.78364078768371404</v>
       </c>
       <c r="AA22" s="0">
         <v>0</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>0</v>
+        <v>0.76621050941058777</v>
       </c>
       <c r="AZ22" s="0">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="BN22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO22" s="0">
         <v>0</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="0">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="0">
-        <v>0</v>
+        <v>0.76062810809392201</v>
       </c>
       <c r="H23" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="0">
-        <v>0</v>
+        <v>0.79596817045267509</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.56977223620919104</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>0</v>
+        <v>0.63862803575081417</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4789,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="AR23" s="0">
-        <v>0</v>
+        <v>0.98438988989991416</v>
       </c>
       <c r="AS23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="0">
         <v>0</v>
@@ -4825,10 +4825,10 @@
         <v>0</v>
       </c>
       <c r="BD23" s="0">
-        <v>0</v>
+        <v>0.87966448767620786</v>
       </c>
       <c r="BE23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0</v>
+        <v>0.53427239723402509</v>
       </c>
     </row>
     <row r="24">
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0</v>
+        <v>0.88850603788037374</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="0">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5064,10 +5064,10 @@
         <v>0</v>
       </c>
       <c r="BO24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>0</v>
+        <v>0.61777582389471852</v>
       </c>
     </row>
     <row r="25">
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="0">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0</v>
+        <v>0.96074495695820361</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5102,13 +5102,13 @@
         <v>0</v>
       </c>
       <c r="K25" s="0">
-        <v>0</v>
+        <v>0.6577649778233825</v>
       </c>
       <c r="L25" s="0">
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>0</v>
+        <v>0.67050269087458569</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.8225996716851609</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="0">
-        <v>0</v>
+        <v>0.88865440487097636</v>
       </c>
       <c r="AH25" s="0">
         <v>0</v>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="0">
-        <v>0</v>
+        <v>0.88267137236149784</v>
       </c>
       <c r="AK25" s="0">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>0</v>
+        <v>0.70604768281557739</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="BN25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO25" s="0">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0.70111955436527107</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>0</v>
+        <v>0.65740731636653016</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="0">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>1</v>
+        <v>0.52119166963233954</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5392,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="AM26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>0</v>
+        <v>0.63152801245107582</v>
       </c>
       <c r="AO26" s="0">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="AT26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="0">
         <v>0</v>
@@ -5440,13 +5440,13 @@
         <v>0</v>
       </c>
       <c r="BC26" s="0">
-        <v>0</v>
+        <v>0.88587646769168027</v>
       </c>
       <c r="BD26" s="0">
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>0</v>
+        <v>0.55227618647705468</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>0.81495469111576291</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>0</v>
+        <v>0.50059495655634767</v>
       </c>
       <c r="V27" s="0">
         <v>0</v>
@@ -5553,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="X27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.52668467901707405</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="0">
         <v>0</v>
@@ -5634,10 +5634,10 @@
         <v>0</v>
       </c>
       <c r="AY27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="0">
-        <v>0</v>
+        <v>0.85739621159766077</v>
       </c>
       <c r="BA27" s="0">
         <v>0</v>
@@ -5664,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="0">
         <v>0</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="0">
         <v>0</v>
@@ -5741,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="R28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="0">
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>0</v>
+        <v>0.83042478267385023</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>1</v>
+        <v>0.51468305766359701</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="0">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="BA28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="0">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>0</v>
+        <v>0.91877341003917345</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="0">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0</v>
+        <v>0.85231960971033649</v>
       </c>
       <c r="O29" s="0">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="0">
-        <v>0</v>
+        <v>0.75869982438459016</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="0">
-        <v>0</v>
+        <v>0.6212814293307547</v>
       </c>
       <c r="AQ29" s="0">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="AZ29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="0">
         <v>0</v>
@@ -6076,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="BI29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ29" s="0">
         <v>0</v>
@@ -6111,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0</v>
+        <v>0.60882829663093596</v>
       </c>
       <c r="E30" s="0">
-        <v>0</v>
+        <v>0.6108400052168772</v>
       </c>
       <c r="F30" s="0">
         <v>0</v>
@@ -6135,19 +6135,19 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="0">
         <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>0</v>
+        <v>0.58256718585494438</v>
       </c>
       <c r="P30" s="0">
-        <v>1</v>
+        <v>0.88036074832069988</v>
       </c>
       <c r="Q30" s="0">
         <v>0</v>
@@ -6159,10 +6159,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.72574621143559659</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="0">
-        <v>1</v>
+        <v>0.92305963342774311</v>
       </c>
       <c r="AQ30" s="0">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="AS30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="0">
         <v>0</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0</v>
+        <v>0.75523966297103007</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.64129728274024811</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6416,13 +6416,13 @@
         <v>0</v>
       </c>
       <c r="AK31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="0">
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0</v>
+        <v>0.64915241236976196</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="AQ31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="0">
         <v>0</v>
@@ -6464,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="BA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="0">
         <v>0</v>
@@ -6553,13 +6553,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="0">
         <v>0</v>
       </c>
       <c r="P32" s="0">
-        <v>1</v>
+        <v>0.9187294158607926</v>
       </c>
       <c r="Q32" s="0">
         <v>0</v>
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="AC32" s="0">
-        <v>0</v>
+        <v>0.80621109056067963</v>
       </c>
       <c r="AD32" s="0">
         <v>0</v>
@@ -6634,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="AO32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>1</v>
+        <v>0.58119109221364473</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="0">
-        <v>0</v>
+        <v>0.82913285018096294</v>
       </c>
       <c r="AZ32" s="0">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="BG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH32" s="0">
         <v>0</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="BL32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM32" s="0">
         <v>0</v>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="0">
-        <v>0</v>
+        <v>0.85072301590682187</v>
       </c>
       <c r="J33" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>0</v>
+        <v>0.80647889493772262</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.65750173368098475</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.61699120493950377</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="AL33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="0">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="0">
         <v>0</v>
@@ -6915,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="BN33" s="0">
-        <v>0</v>
+        <v>0.61715369173306356</v>
       </c>
       <c r="BO33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1</v>
+        <v>0.53898471356940791</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -7022,13 +7022,13 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.89179809793034459</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7040,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="AM34" s="0">
-        <v>0</v>
+        <v>0.76507733858966898</v>
       </c>
       <c r="AN34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="0">
         <v>0</v>
@@ -7058,16 +7058,16 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>0</v>
+        <v>0.55893092949347323</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0</v>
+        <v>0.59325553103332285</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7165,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="0">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>0</v>
+        <v>0.87159457553472741</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7270,10 +7270,10 @@
         <v>0</v>
       </c>
       <c r="AU35" s="0">
-        <v>1</v>
+        <v>0.78959273623014303</v>
       </c>
       <c r="AV35" s="0">
-        <v>0</v>
+        <v>0.51508337820085381</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7306,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>0</v>
+        <v>0.52206555953836375</v>
       </c>
       <c r="BH35" s="0">
-        <v>0</v>
+        <v>0.72809430225646687</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7338,13 +7338,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="0">
         <v>0</v>
       </c>
       <c r="C36" s="0">
-        <v>0</v>
+        <v>0.83526295817889462</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="0">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0</v>
+        <v>0.75004301453832944</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="0">
-        <v>1</v>
+        <v>0.53534643265825754</v>
       </c>
       <c r="AC36" s="0">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AM36" s="0">
-        <v>0</v>
+        <v>0.56275530554668474</v>
       </c>
       <c r="AN36" s="0">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>0</v>
+        <v>0.51274056033560378</v>
       </c>
       <c r="BC36" s="0">
         <v>0</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="0">
-        <v>0</v>
+        <v>0.97099443626253346</v>
       </c>
       <c r="C37" s="0">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="0">
         <v>0</v>
@@ -7622,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="0">
         <v>0</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="AE37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.7433148123441059</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="AS37" s="0">
-        <v>0</v>
+        <v>0.94438301607796782</v>
       </c>
       <c r="AT37" s="0">
         <v>0</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="0">
-        <v>0</v>
+        <v>0.59997614979901703</v>
       </c>
       <c r="O38" s="0">
         <v>0</v>
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="0">
-        <v>0</v>
+        <v>0.82177290266556269</v>
       </c>
       <c r="S38" s="0">
         <v>0</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="0">
         <v>0</v>
@@ -7858,16 +7858,16 @@
         <v>0</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.83917706899696909</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.802588200209151</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="BJ38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK38" s="0">
         <v>0</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="BP38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0</v>
+        <v>0.7650800209121873</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0</v>
+        <v>0.97507745371895804</v>
       </c>
       <c r="R39" s="0">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>0</v>
+        <v>0.76962253555935778</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>0</v>
+        <v>0.70542647278557391</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
       </c>
       <c r="AJ39" s="0">
-        <v>0</v>
+        <v>0.79902850126479441</v>
       </c>
       <c r="AK39" s="0">
         <v>0</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AS39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="0">
         <v>0</v>
@@ -8165,10 +8165,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>0</v>
+        <v>0.81761804893500389</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>0</v>
+        <v>0.52797713242034006</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.85477462924598879</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="AW40" s="0">
-        <v>0</v>
+        <v>0.83686390737544714</v>
       </c>
       <c r="AX40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="0">
-        <v>0</v>
+        <v>0.92128078456241724</v>
       </c>
       <c r="BK40" s="0">
         <v>0</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0</v>
+        <v>0.65147969523784</v>
       </c>
       <c r="B41" s="0">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>0</v>
+        <v>0.85268552076264637</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="S41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8506,13 +8506,13 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>1</v>
+        <v>0.68699031500127383</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="BB41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC41" s="0">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="BH41" s="0">
-        <v>0</v>
+        <v>0.8328790498878067</v>
       </c>
       <c r="BI41" s="0">
         <v>0</v>
@@ -8658,10 +8658,10 @@
         <v>0</v>
       </c>
       <c r="AC42" s="0">
-        <v>0</v>
+        <v>0.8110883784838766</v>
       </c>
       <c r="AD42" s="0">
-        <v>1</v>
+        <v>0.51713758130409349</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -8709,10 +8709,10 @@
         <v>0</v>
       </c>
       <c r="AT42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0</v>
+        <v>0.9877751705109481</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0">
-        <v>1</v>
+        <v>0.83380467998395902</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="0">
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="AE43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="0">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="AW43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="0">
         <v>0</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>0</v>
+        <v>0.67896156068425195</v>
       </c>
       <c r="BK43" s="0">
         <v>0</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>0</v>
+        <v>0.70989425974555376</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -9034,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="0">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>0</v>
+        <v>0.62785924141221716</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="0">
-        <v>1</v>
+        <v>0.70098087039547563</v>
       </c>
       <c r="AG44" s="0">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="AV44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW44" s="0">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>0</v>
+        <v>0.67330305100162358</v>
       </c>
       <c r="BH44" s="0">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="0">
         <v>0</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="0">
         <v>0</v>
@@ -9291,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="0">
-        <v>0</v>
+        <v>0.98343070180554237</v>
       </c>
       <c r="AI45" s="0">
         <v>0</v>
@@ -9300,13 +9300,13 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0</v>
+        <v>0.74935956391059677</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
       </c>
       <c r="AM45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.79653669469423516</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>0</v>
+        <v>0.58664271153240666</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="BM45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN45" s="0">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>0</v>
+        <v>0.89929783958334042</v>
       </c>
       <c r="C46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
       </c>
       <c r="E46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="0">
         <v>0</v>
@@ -9473,13 +9473,13 @@
         <v>0</v>
       </c>
       <c r="Z46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="0">
         <v>0</v>
       </c>
       <c r="AB46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="0">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="AP46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.61035583033323271</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="BM46" s="0">
-        <v>0</v>
+        <v>0.90928271624232637</v>
       </c>
       <c r="BN46" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9703,10 +9703,10 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>1</v>
+        <v>0.74327906210964922</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9724,10 +9724,10 @@
         <v>0</v>
       </c>
       <c r="AO47" s="0">
-        <v>1</v>
+        <v>0.81692300331438017</v>
       </c>
       <c r="AP47" s="0">
-        <v>0</v>
+        <v>0.764684044655218</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.6372814498324304</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>0</v>
+        <v>0.70688946984205892</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9909,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="AH48" s="0">
-        <v>0</v>
+        <v>0.8790897873443646</v>
       </c>
       <c r="AI48" s="0">
-        <v>0</v>
+        <v>0.527186250455975</v>
       </c>
       <c r="AJ48" s="0">
         <v>0</v>
@@ -9939,13 +9939,13 @@
         <v>0</v>
       </c>
       <c r="AR48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS48" s="0">
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.89933703110993424</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0</v>
+        <v>0.62839558757089231</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10037,13 +10037,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
       </c>
       <c r="J49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="0">
         <v>0</v>
@@ -10133,16 +10133,16 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0</v>
+        <v>0.59975885109596772</v>
       </c>
       <c r="AO49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
       </c>
       <c r="AQ49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0</v>
+        <v>0.5798845053417141</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0</v>
+        <v>0.63467292711621393</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.81803122395986694</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>0</v>
+        <v>0.67455373793628404</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0</v>
+        <v>0.62949895225943853</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="0">
-        <v>0</v>
+        <v>0.9401963837348819</v>
       </c>
       <c r="L51" s="0">
         <v>0</v>
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="S51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" s="0">
         <v>0</v>
@@ -10491,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>0</v>
+        <v>0.91008578190510359</v>
       </c>
       <c r="W51" s="0">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>0</v>
+        <v>0.80402450009047333</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0</v>
+        <v>0.75294180083773932</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.50689057681966787</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="BF51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG51" s="0">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="0">
-        <v>0</v>
+        <v>0.85722568264934618</v>
       </c>
       <c r="BK51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>0</v>
+        <v>0.54647400224859854</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0</v>
+        <v>0.73605720081481252</v>
       </c>
       <c r="R52" s="0">
         <v>0</v>
@@ -10712,13 +10712,13 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0</v>
+        <v>0.64576997126756663</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
       </c>
       <c r="AC52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10840,7 +10840,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0</v>
+        <v>0.81894404321217107</v>
       </c>
       <c r="B53" s="0">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>0</v>
+        <v>0.67679155233807076</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53" s="0">
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="AB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53" s="0">
         <v>0</v>
@@ -10930,7 +10930,7 @@
         <v>0</v>
       </c>
       <c r="AE53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>0</v>
+        <v>0.87014401167411481</v>
       </c>
       <c r="N54" s="0">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="0">
-        <v>0</v>
+        <v>0.60580900858828279</v>
       </c>
       <c r="AK54" s="0">
         <v>0</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="AO54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>0</v>
+        <v>0.71004296759584251</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11255,10 +11255,10 @@
         <v>0</v>
       </c>
       <c r="B55" s="0">
-        <v>1</v>
+        <v>0.69035900567249642</v>
       </c>
       <c r="C55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0</v>
+        <v>0.71252886267523829</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>0</v>
+        <v>0.73964290377251318</v>
       </c>
       <c r="AA55" s="0">
         <v>0</v>
@@ -11420,13 +11420,13 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.58117016025875756</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>0</v>
+        <v>0.54098256593568905</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0</v>
+        <v>0.56270450468567024</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>0</v>
+        <v>0.7825118008108396</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="BM56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56" s="0">
         <v>0</v>
@@ -11724,13 +11724,13 @@
         <v>0</v>
       </c>
       <c r="U57" s="0">
-        <v>0</v>
+        <v>0.75007666583347388</v>
       </c>
       <c r="V57" s="0">
         <v>0</v>
       </c>
       <c r="W57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57" s="0">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="0">
-        <v>0</v>
+        <v>0.71522893422978995</v>
       </c>
       <c r="AA57" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.56470939655557195</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -11888,10 +11888,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.88520835366339612</v>
       </c>
       <c r="H58" s="0">
-        <v>0</v>
+        <v>0.82003978833685109</v>
       </c>
       <c r="I58" s="0">
         <v>0</v>
@@ -11903,10 +11903,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="0">
-        <v>0</v>
+        <v>0.71866594581182164</v>
       </c>
       <c r="N58" s="0">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="AV58" s="0">
-        <v>0</v>
+        <v>0.93799987060607082</v>
       </c>
       <c r="AW58" s="0">
         <v>0</v>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
       <c r="AY58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="0">
         <v>0</v>
@@ -12038,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0</v>
+        <v>0.83686269457448992</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12056,7 +12056,7 @@
         <v>0</v>
       </c>
       <c r="BK58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL58" s="0">
         <v>0</v>
@@ -12169,7 +12169,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="0">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="AI59" s="0">
-        <v>0</v>
+        <v>0.97275160018262707</v>
       </c>
       <c r="AJ59" s="0">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="0">
-        <v>0</v>
+        <v>0.75555073699327147</v>
       </c>
       <c r="AS59" s="0">
         <v>0</v>
@@ -12238,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="BC59" s="0">
-        <v>0</v>
+        <v>0.92727943714062366</v>
       </c>
       <c r="BD59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12285,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="0">
-        <v>0</v>
+        <v>0.79561549764251027</v>
       </c>
       <c r="C60" s="0">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="P60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="0">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>0</v>
+        <v>0.91993322924845844</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>0</v>
+        <v>0.58044172071755895</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>0</v>
+        <v>0.63326087660171027</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12453,10 +12453,10 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0</v>
+        <v>0.73311766194242733</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="D61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12566,13 +12566,13 @@
         <v>0</v>
       </c>
       <c r="AA61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="0">
         <v>0</v>
       </c>
       <c r="AC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="0">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>0</v>
+        <v>0.55480887717533101</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH61" s="0">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>0</v>
+        <v>0.99562447703784351</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0">
-        <v>0</v>
+        <v>0.9185753430348037</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="0">
         <v>0</v>
@@ -12805,13 +12805,13 @@
         <v>0</v>
       </c>
       <c r="AL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="0">
         <v>0</v>
       </c>
       <c r="AN62" s="0">
-        <v>0</v>
+        <v>0.96316523842633628</v>
       </c>
       <c r="AO62" s="0">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="AQ62" s="0">
-        <v>0</v>
+        <v>0.91286049727244478</v>
       </c>
       <c r="AR62" s="0">
         <v>0</v>
@@ -12844,13 +12844,13 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0</v>
+        <v>0.62867173931096865</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.64393106539043266</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0">
-        <v>0</v>
+        <v>0.62605396728871199</v>
       </c>
       <c r="S63" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>0</v>
+        <v>0.84092967408989172</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -13071,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="BF63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0</v>
+        <v>0.59716617414077522</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0</v>
+        <v>0.59336044235058516</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13199,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.5810839491793145</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.55179720684561517</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0</v>
+        <v>0.72900836866172325</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>0</v>
+        <v>0.51225724817861873</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13444,10 +13444,10 @@
         <v>0</v>
       </c>
       <c r="AS65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>0</v>
+        <v>0.7350715571681532</v>
       </c>
       <c r="AU65" s="0">
         <v>0</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="BD65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE65" s="0">
         <v>0</v>
@@ -13498,10 +13498,10 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.99513652253234697</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0</v>
+        <v>0.88136822795327918</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13524,7 +13524,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0">
-        <v>0</v>
+        <v>0.97672178218763395</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="0">
         <v>0</v>
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="0">
         <v>0</v>
@@ -13590,7 +13590,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="0">
         <v>0</v>
@@ -13614,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="AG66" s="0">
-        <v>0</v>
+        <v>0.70002505825814576</v>
       </c>
       <c r="AH66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.96858229914515315</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13748,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
@@ -13760,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="0">
-        <v>0</v>
+        <v>0.90962422115509733</v>
       </c>
       <c r="N67" s="0">
         <v>0</v>
@@ -13793,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0</v>
+        <v>0.76729205977864501</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="0">
-        <v>0</v>
+        <v>0.52586862018013747</v>
       </c>
       <c r="I68" s="0">
         <v>0</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="W68" s="0">
-        <v>0</v>
+        <v>0.65951544341062629</v>
       </c>
       <c r="X68" s="0">
-        <v>0</v>
+        <v>0.82109131103772881</v>
       </c>
       <c r="Y68" s="0">
         <v>0</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="AL68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject19.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject19.xlsx
@@ -248,7 +248,7 @@
         <v>0</v>
       </c>
       <c r="AO1" s="0">
-        <v>0.6225530130690482</v>
+        <v>0.65147969523784</v>
       </c>
       <c r="AP1" s="0">
         <v>0</v>
@@ -284,7 +284,7 @@
         <v>0</v>
       </c>
       <c r="BA1" s="0">
-        <v>0.5184272767446646</v>
+        <v>0.81894404321217107</v>
       </c>
       <c r="BB1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.51416383772880159</v>
+        <v>0.96858229914515315</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="0">
-        <v>0.93727274121827042</v>
+        <v>0.97099443626253346</v>
       </c>
       <c r="AL2" s="0">
         <v>0</v>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="0">
-        <v>0.75370286268355613</v>
+        <v>0.79561549764251027</v>
       </c>
       <c r="BI2" s="0">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="0">
-        <v>0.82668691919573378</v>
+        <v>0.83526295817889462</v>
       </c>
       <c r="AK3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>0.67698858734050371</v>
+        <v>0.81761804893500389</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="0">
-        <v>0.66689764715032052</v>
+        <v>0.97672178218763395</v>
       </c>
       <c r="BO3" s="0">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.54205555910674841</v>
+        <v>0.76202548918266</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.59026735867028113</v>
+        <v>0.81495469111576291</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.55179418805080049</v>
+        <v>0.6108400052168772</v>
       </c>
       <c r="AE5" s="0">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="0">
-        <v>0.75969171312089268</v>
+        <v>0.91154672668052028</v>
       </c>
       <c r="S6" s="0">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="0">
-        <v>0.58321641859065565</v>
+        <v>0.9123941204900845</v>
       </c>
       <c r="V6" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>0.9802366813870389</v>
+        <v>0.99203712723317228</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0">
-        <v>0.55957690535774507</v>
+        <v>0.76062810809392201</v>
       </c>
       <c r="X7" s="0">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0.5645592840634488</v>
+        <v>0.88520835366339612</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>0.54141738900876257</v>
+        <v>0.96074495695820361</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="0">
-        <v>0.67598548367055433</v>
+        <v>0.82003978833685109</v>
       </c>
       <c r="BG8" s="0">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="0">
-        <v>0.5117257800933932</v>
+        <v>0.52586862018013747</v>
       </c>
     </row>
     <row r="9">
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="0">
-        <v>0.69973497605812285</v>
+        <v>0.85072301590682187</v>
       </c>
       <c r="AH9" s="0">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>0.5992561363112936</v>
+        <v>0.71750111111920301</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.61475225585673532</v>
+        <v>0.62633454855744142</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="0">
-        <v>0.63742955990620331</v>
+        <v>0.6577649778233825</v>
       </c>
       <c r="Z11" s="0">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="AY11" s="0">
-        <v>0.71488637014756851</v>
+        <v>0.9401963837348819</v>
       </c>
       <c r="AZ11" s="0">
         <v>0</v>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0">
-        <v>0.50241532657119825</v>
+        <v>0.9347811585505531</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.71340609703708902</v>
+        <v>0.81609416882116292</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.52572987134220406</v>
+        <v>0.54647400224859854</v>
       </c>
       <c r="BA12" s="0">
         <v>0.7671779866930708</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92711403534174253</v>
+        <v>0.99359427332404615</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="0">
-        <v>0.94728714085158239</v>
+        <v>0.95489281494336087</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>0.57319935736298411</v>
+        <v>0.87014401167411481</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="BF13" s="0">
-        <v>0.622820021254195</v>
+        <v>0.71866594581182164</v>
       </c>
       <c r="BG13" s="0">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="0">
-        <v>0.54967133540802338</v>
+        <v>0.90962422115509733</v>
       </c>
       <c r="BP13" s="0">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.78309710103621433</v>
+        <v>0.79347063789745576</v>
       </c>
       <c r="F14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.64526182686813816</v>
+        <v>0.65505414166005949</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.77420416995688468</v>
+        <v>0.85231960971033649</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0">
-        <v>0.51926827732870662</v>
+        <v>0.79596817045267509</v>
       </c>
       <c r="X15" s="0">
         <v>0</v>
@@ -3305,13 +3305,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.85411803593538371</v>
+        <v>0.88036074832069988</v>
       </c>
       <c r="AE16" s="0">
         <v>0</v>
       </c>
       <c r="AF16" s="0">
-        <v>0.82974492470191641</v>
+        <v>0.9187294158607926</v>
       </c>
       <c r="AG16" s="0">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="0">
-        <v>0.78777848858866328</v>
+        <v>0.96179617025379605</v>
       </c>
       <c r="K17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>0.72729438415666015</v>
+        <v>0.88850603788037374</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="AM17" s="0">
-        <v>0.94600071456501855</v>
+        <v>0.97507745371895804</v>
       </c>
       <c r="AN17" s="0">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.51383483441596467</v>
+        <v>0.87596711531190818</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.79956702707281879</v>
+        <v>0.82177290266556269</v>
       </c>
       <c r="AM18" s="0">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>0.76334237080571532</v>
+        <v>0.9185753430348037</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0">
-        <v>0.94249969362173203</v>
+        <v>0.98589826840531436</v>
       </c>
       <c r="E20" s="0">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.52681011379674436</v>
+        <v>0.5465394155337131</v>
       </c>
       <c r="V20" s="0">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>0.82451520479239515</v>
+        <v>0.87159457553472741</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.5957246611605691</v>
+        <v>0.75007666583347388</v>
       </c>
       <c r="BF21" s="0">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>0</v>
       </c>
       <c r="AY22" s="0">
-        <v>0.76621050941058777</v>
+        <v>0.91008578190510359</v>
       </c>
       <c r="AZ22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.56977223620919104</v>
+        <v>0.65702515612594936</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.63862803575081417</v>
+        <v>0.75523966297103007</v>
       </c>
       <c r="AF23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0.53427239723402509</v>
+        <v>0.65951544341062629</v>
       </c>
     </row>
     <row r="24">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="BP24" s="0">
-        <v>0.61777582389471852</v>
+        <v>0.82109131103772881</v>
       </c>
     </row>
     <row r="25">
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>0.67050269087458569</v>
+        <v>0.79668644565151592</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>0.70604768281557739</v>
+        <v>0.84092967408989172</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5287,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>0.70111955436527107</v>
+        <v>0.77178468734555294</v>
       </c>
       <c r="E26" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>0.65740731636653016</v>
+        <v>0.9129259046624798</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0.52119166963233954</v>
+        <v>0.78364078768371404</v>
       </c>
       <c r="W26" s="0">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="0">
-        <v>0.55227618647705468</v>
+        <v>0.71522893422978995</v>
       </c>
       <c r="BF26" s="0">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>0.50059495655634767</v>
+        <v>0.97444218680601891</v>
       </c>
       <c r="V27" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.52668467901707405</v>
+        <v>0.8225996716851609</v>
       </c>
       <c r="Z27" s="0">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>0.83042478267385023</v>
+        <v>0.85827055784407236</v>
       </c>
       <c r="U28" s="0">
         <v>0</v>
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="0">
-        <v>0.51468305766359701</v>
+        <v>0.53534643265825754</v>
       </c>
       <c r="AK28" s="0">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="0">
-        <v>0.75869982438459016</v>
+        <v>0.80621109056067963</v>
       </c>
       <c r="AG29" s="0">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="AP29" s="0">
-        <v>0.6212814293307547</v>
+        <v>0.8110883784838766</v>
       </c>
       <c r="AQ29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>0.60882829663093596</v>
+        <v>0.68679424920294008</v>
       </c>
       <c r="E30" s="0">
         <v>0.6108400052168772</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="0">
-        <v>0.58256718585494438</v>
+        <v>0.85413146806332085</v>
       </c>
       <c r="P30" s="0">
         <v>0.88036074832069988</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0.72574621143559659</v>
+        <v>0.75259700790765605</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.64129728274024811</v>
+        <v>0.65750173368098475</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0.64915241236976196</v>
+        <v>0.76962253555935778</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="0">
-        <v>0.58119109221364473</v>
+        <v>0.70098087039547563</v>
       </c>
       <c r="AS32" s="0">
         <v>0</v>
@@ -6792,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="0">
-        <v>0.80647889493772262</v>
+        <v>0.88865440487097636</v>
       </c>
       <c r="Z33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.61699120493950377</v>
+        <v>0.89179809793034459</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="BN33" s="0">
-        <v>0.61715369173306356</v>
+        <v>0.70002505825814576</v>
       </c>
       <c r="BO33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.53898471356940791</v>
+        <v>0.74779409741695813</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AS34" s="0">
-        <v>0.55893092949347323</v>
+        <v>0.98343070180554237</v>
       </c>
       <c r="AT34" s="0">
         <v>0</v>
@@ -7067,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="AV34" s="0">
-        <v>0.59325553103332285</v>
+        <v>0.8790897873443646</v>
       </c>
       <c r="AW34" s="0">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0.78959273623014303</v>
       </c>
       <c r="AV35" s="0">
-        <v>0.51508337820085381</v>
+        <v>0.527186250455975</v>
       </c>
       <c r="AW35" s="0">
         <v>0</v>
@@ -7306,10 +7306,10 @@
         <v>0</v>
       </c>
       <c r="BG35" s="0">
-        <v>0.52206555953836375</v>
+        <v>0.97275160018262707</v>
       </c>
       <c r="BH35" s="0">
-        <v>0.72809430225646687</v>
+        <v>0.91993322924845844</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="0">
-        <v>0.75004301453832944</v>
+        <v>0.88267137236149784</v>
       </c>
       <c r="Z36" s="0">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="AM36" s="0">
-        <v>0.56275530554668474</v>
+        <v>0.79902850126479441</v>
       </c>
       <c r="AN36" s="0">
         <v>0</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="BB36" s="0">
-        <v>0.51274056033560378</v>
+        <v>0.60580900858828279</v>
       </c>
       <c r="BC36" s="0">
         <v>0</v>
@@ -7655,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.7433148123441059</v>
+        <v>0.83917706899696909</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="0">
-        <v>0.59997614979901703</v>
+        <v>0.96771530895913171</v>
       </c>
       <c r="O38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.802588200209151</v>
+        <v>0.85477462924598879</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="0">
-        <v>0.7650800209121873</v>
+        <v>0.91906171074099585</v>
       </c>
       <c r="M39" s="0">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="0">
-        <v>0.70542647278557391</v>
+        <v>0.76507733858966898</v>
       </c>
       <c r="AI39" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>0.52797713242034006</v>
+        <v>0.63152801245107582</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="BJ40" s="0">
-        <v>0.92128078456241724</v>
+        <v>0.96316523842633628</v>
       </c>
       <c r="BK40" s="0">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="0">
-        <v>0.85268552076264637</v>
+        <v>0.98493602092014942</v>
       </c>
       <c r="H41" s="0">
         <v>0</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="AU41" s="0">
-        <v>0.68699031500127383</v>
+        <v>0.81692300331438017</v>
       </c>
       <c r="AV41" s="0">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0.8110883784838766</v>
       </c>
       <c r="AD42" s="0">
-        <v>0.51713758130409349</v>
+        <v>0.92305963342774311</v>
       </c>
       <c r="AE42" s="0">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0">
-        <v>0.83380467998395902</v>
+        <v>0.91801597979138516</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="BJ43" s="0">
-        <v>0.67896156068425195</v>
+        <v>0.91286049727244478</v>
       </c>
       <c r="BK43" s="0">
         <v>0</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="0">
-        <v>0.70989425974555376</v>
+        <v>0.85725557874438429</v>
       </c>
       <c r="G44" s="0">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>0.62785924141221716</v>
+        <v>0.98438988989991416</v>
       </c>
       <c r="X44" s="0">
         <v>0</v>
@@ -9160,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="BG44" s="0">
-        <v>0.67330305100162358</v>
+        <v>0.75555073699327147</v>
       </c>
       <c r="BH44" s="0">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="0">
-        <v>0.74935956391059677</v>
+        <v>0.94438301607796782</v>
       </c>
       <c r="AL45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>0.58664271153240666</v>
+        <v>0.7825118008108396</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="0">
-        <v>0.89929783958334042</v>
+        <v>0.94350714091442323</v>
       </c>
       <c r="C46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.61035583033323271</v>
+        <v>0.89933703110993424</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="AI47" s="0">
-        <v>0.74327906210964922</v>
+        <v>0.78959273623014303</v>
       </c>
       <c r="AJ47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0.81692300331438017</v>
       </c>
       <c r="AP47" s="0">
-        <v>0.764684044655218</v>
+        <v>0.9877751705109481</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.6372814498324304</v>
+        <v>0.79653669469423516</v>
       </c>
       <c r="AT47" s="0">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="0">
-        <v>0.70688946984205892</v>
+        <v>0.90895316553191985</v>
       </c>
       <c r="J48" s="0">
         <v>0</v>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="BF48" s="0">
-        <v>0.62839558757089231</v>
+        <v>0.93799987060607082</v>
       </c>
       <c r="BG48" s="0">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="0">
-        <v>0.59975885109596772</v>
+        <v>0.83686390737544714</v>
       </c>
       <c r="AO49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.5798845053417141</v>
+        <v>0.75294180083773932</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.63467292711621393</v>
+        <v>0.84209717340984924</v>
       </c>
       <c r="B50" s="0">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>0.62949895225943853</v>
+        <v>0.68843690718313211</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
@@ -10521,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="AF51" s="0">
-        <v>0.80402450009047333</v>
+        <v>0.82913285018096294</v>
       </c>
       <c r="AG51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0.75294180083773932</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.50689057681966787</v>
+        <v>0.81803122395986694</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.73605720081481252</v>
+        <v>0.99188088890230863</v>
       </c>
       <c r="R52" s="0">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="AA52" s="0">
-        <v>0.64576997126756663</v>
+        <v>0.85739621159766077</v>
       </c>
       <c r="AB52" s="0">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="0">
-        <v>0.67679155233807076</v>
+        <v>0.7671779866930708</v>
       </c>
       <c r="M53" s="0">
         <v>0</v>
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="0">
-        <v>0.69035900567249642</v>
+        <v>0.75435203123047667</v>
       </c>
       <c r="C55" s="0">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>0.71252886267523829</v>
+        <v>0.74426107451248902</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="0">
-        <v>0.73964290377251318</v>
+        <v>0.88587646769168027</v>
       </c>
       <c r="AA55" s="0">
         <v>0</v>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="BG55" s="0">
-        <v>0.54098256593568905</v>
+        <v>0.92727943714062366</v>
       </c>
       <c r="BH55" s="0">
         <v>0</v>
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0">
-        <v>0.56270450468567024</v>
+        <v>0.87966448767620786</v>
       </c>
       <c r="X56" s="0">
         <v>0</v>
@@ -11826,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.56470939655557195</v>
+        <v>0.58117016025875756</v>
       </c>
       <c r="BD57" s="0">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="AO60" s="0">
-        <v>0.58044172071755895</v>
+        <v>0.8328790498878067</v>
       </c>
       <c r="AP60" s="0">
         <v>0</v>
@@ -12441,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>0.63326087660171027</v>
+        <v>0.71004296759584251</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.73311766194242733</v>
+        <v>0.83686269457448992</v>
       </c>
       <c r="BG60" s="0">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>0.55480887717533101</v>
+        <v>0.67455373793628404</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="AY62" s="0">
-        <v>0.62867173931096865</v>
+        <v>0.85722568264934618</v>
       </c>
       <c r="AZ62" s="0">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="R63" s="0">
-        <v>0.62605396728871199</v>
+        <v>0.91783004457171691</v>
       </c>
       <c r="S63" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.59716617414077522</v>
+        <v>0.99562447703784351</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="0">
-        <v>0.59336044235058516</v>
+        <v>0.68325617390370419</v>
       </c>
       <c r="G64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.5810839491793145</v>
+        <v>0.64393106539043266</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.55179720684561517</v>
+        <v>0.99513652253234697</v>
       </c>
       <c r="BN64" s="0">
         <v>0</v>
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>0.72900836866172325</v>
+        <v>0.77963924324273504</v>
       </c>
       <c r="R65" s="0">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>0.51225724817861873</v>
+        <v>0.91877341003917345</v>
       </c>
       <c r="AC65" s="0">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>0.7350715571681532</v>
+        <v>0.90928271624232637</v>
       </c>
       <c r="AU65" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.76729205977864501</v>
+        <v>0.88136822795327918</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
